--- a/Menu.xlsx
+++ b/Menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MR5\Documents\Projects\Static Websites\cake-shop-website-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FF614C-EF89-4ED4-8FF7-9D1131E882F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6FCD17-8A7C-4B0A-A800-1878793BA8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Test1</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Item2-2</t>
+  </si>
+  <si>
+    <t>Item3-1</t>
+  </si>
+  <si>
+    <t>Item3-2</t>
   </si>
 </sst>
 </file>
@@ -360,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,6 +398,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Menu.xlsx
+++ b/Menu.xlsx
@@ -1,67 +1,94 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MR5\Documents\Projects\Static Websites\cake-shop-website-template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6FCD17-8A7C-4B0A-A800-1878793BA8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
+    <sheet name="Φυλλο1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Test1</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <t>Item1-1</t>
-  </si>
-  <si>
-    <t>Item1-2</t>
-  </si>
-  <si>
-    <t>Item2-1</t>
-  </si>
-  <si>
-    <t>Item2-2</t>
-  </si>
-  <si>
-    <t>Item3-1</t>
-  </si>
-  <si>
-    <t>Item3-2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://imageproxy.wolt.com/assets/6672a377a647d17d9d3bafac?w=600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donut 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donut 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donut 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donut 01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -73,7 +100,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -81,184 +108,152 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -266,33 +261,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -305,13 +291,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -321,15 +301,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -337,7 +315,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -345,68 +322,198 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="112.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="56.41"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C2" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="96.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="47.59"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>10.99</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>11.99</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>